--- a/docs/define.xlsx
+++ b/docs/define.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr dateCompatibility="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="270" yWindow="540" windowWidth="24495" windowHeight="11925"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="시트1" state="visible" r:id="rId3"/>
+    <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -178,88 +181,46 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FFEA9999"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -267,9 +228,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -290,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -368,21 +327,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -411,21 +355,6 @@
       <right/>
       <top style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -493,36 +422,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -542,536 +441,817 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="2" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="3" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="4" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="5" applyFont="1" fontId="2">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="6" applyFont="1" fontId="3" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="7" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="8" applyFont="1" fontId="4">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="9" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="10" applyFont="1" fontId="5">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="11" applyFont="1" fontId="6">
-      <alignment vertical="center" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="12" applyFont="1" fontId="7">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="13" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="14" applyFont="1" fontId="8">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="15" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="16" fontId="0">
-      <alignment vertical="center" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="17" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="18" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane topLeftCell="F5" ySplit="4.0" xSplit="5.0" activePane="bottomRight" state="frozen"/>
-      <selection sqref="F1" activeCell="F1" pane="topRight"/>
-      <selection sqref="A5" activeCell="A5" pane="bottomLeft"/>
-      <selection sqref="F5" activeCell="F5" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" customWidth="1" max="2" width="32.29"/>
-    <col min="3" customWidth="1" max="3" width="15.0"/>
-    <col min="5" customWidth="1" max="5" width="9.0"/>
-    <col min="6" customWidth="1" max="7" width="76.14"/>
-    <col min="8" customWidth="1" max="8" width="9.57"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="7" width="76.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" s="13" r="A1">
+    <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c t="s" s="4" r="B1">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c s="2" r="C1"/>
-    </row>
-    <row r="2">
-      <c t="s" s="13" r="A2">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="4" r="B2">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c s="2" r="C2"/>
-    </row>
-    <row r="3">
-      <c s="9" r="A3"/>
-      <c s="9" r="B3"/>
-      <c s="17" r="C3"/>
-      <c s="17" r="D3"/>
-      <c s="17" r="E3"/>
-      <c s="17" r="F3"/>
-      <c s="17" r="G3"/>
-      <c s="17" r="H3"/>
-    </row>
-    <row r="4">
-      <c t="s" s="3" r="A4">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c t="s" s="3" r="B4">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c t="s" s="3" r="C4">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c t="s" s="3" r="D4">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c t="s" s="3" r="E4">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c t="s" s="3" r="F4">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c t="s" s="3" r="G4">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c t="s" s="3" r="H4">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
-      <c s="18" r="I4"/>
-    </row>
-    <row r="5">
-      <c t="s" s="11" r="A5">
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c t="s" s="12" r="B5">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c t="s" s="12" r="C5">
+      <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
-      <c t="s" s="12" r="D5">
+      <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
-      <c t="s" s="12" r="E5">
-        <v>16</v>
-      </c>
-      <c t="str" s="15" r="F5">
-        <f>CONCATENATE($B$1,"/",C5,"/test", if((D5 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="10" t="str">
+        <f t="shared" ref="F5:F18" si="0">CONCATENATE($B$1,"/",C5,"/test", IF((D5 = "X"), "", CONCATENATE("/", $B$2)))</f>
         <v>http://djabo.hoksi.wo.tc/spray/regist/test</v>
       </c>
-      <c t="str" s="15" r="G5">
-        <f>CONCATENATE($B$1,"/",C5,"/json", if((D5 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="G5" s="10" t="str">
+        <f t="shared" ref="G5:G18" si="1">CONCATENATE($B$1,"/",C5,"/json", IF((D5 = "X"), "", CONCATENATE("/", $B$2)))</f>
         <v>http://djabo.hoksi.wo.tc/spray/regist/json</v>
       </c>
-      <c t="s" s="8" r="H5">
+      <c r="H5" s="6" t="s">
         <v>17</v>
       </c>
-      <c s="18" r="I5"/>
-    </row>
-    <row r="6">
-      <c s="11" r="A6"/>
-      <c t="s" s="12" r="B6">
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c t="s" s="12" r="C6">
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c t="s" s="12" r="D6">
-        <v>16</v>
-      </c>
-      <c t="s" s="12" r="E6">
-        <v>16</v>
-      </c>
-      <c t="str" s="15" r="F6">
-        <f>CONCATENATE($B$1,"/",C6,"/test", if((D6 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>http://djabo.hoksi.wo.tc/spray/member_modify/test/2697a9e20d11724e04375ecdb56ec18e</v>
       </c>
-      <c t="str" s="15" r="G6">
-        <f>CONCATENATE($B$1,"/",C6,"/json", if((D6 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="G6" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>http://djabo.hoksi.wo.tc/spray/member_modify/json/2697a9e20d11724e04375ecdb56ec18e</v>
       </c>
-      <c t="s" s="8" r="H6">
+      <c r="H6" s="6" t="s">
         <v>20</v>
       </c>
-      <c s="18" r="I6"/>
-    </row>
-    <row r="7">
-      <c s="11" r="A7"/>
-      <c t="s" s="12" r="B7">
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c t="s" s="12" r="C7">
+      <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
-      <c t="s" s="12" r="D7">
+      <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
-      <c t="s" s="12" r="E7">
-        <v>16</v>
-      </c>
-      <c t="str" s="15" r="F7">
-        <f>CONCATENATE($B$1,"/",C7,"/test", if((D7 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="E7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>http://djabo.hoksi.wo.tc/spray/login/test</v>
       </c>
-      <c t="str" s="15" r="G7">
-        <f>CONCATENATE($B$1,"/",C7,"/json", if((D7 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="G7" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>http://djabo.hoksi.wo.tc/spray/login/json</v>
       </c>
-      <c t="s" s="8" r="H7">
+      <c r="H7" s="6" t="s">
         <v>23</v>
       </c>
-      <c s="18" r="I7"/>
-    </row>
-    <row r="8">
-      <c s="11" r="A8"/>
-      <c t="s" s="12" r="B8">
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
-      <c t="s" s="12" r="C8">
+      <c r="C8" s="8" t="s">
         <v>25</v>
       </c>
-      <c t="s" s="12" r="D8">
-        <v>16</v>
-      </c>
-      <c t="s" s="12" r="E8">
-        <v>16</v>
-      </c>
-      <c t="str" s="15" r="F8">
-        <f>CONCATENATE($B$1,"/",C8,"/test", if((D8 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="D8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>http://djabo.hoksi.wo.tc/spray/logout/test/2697a9e20d11724e04375ecdb56ec18e</v>
       </c>
-      <c t="str" s="15" r="G8">
-        <f>CONCATENATE($B$1,"/",C8,"/json", if((D8 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="G8" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>http://djabo.hoksi.wo.tc/spray/logout/json/2697a9e20d11724e04375ecdb56ec18e</v>
       </c>
-      <c s="8" r="H8"/>
-      <c s="18" r="I8"/>
-    </row>
-    <row r="9">
-      <c s="11" r="A9"/>
-      <c t="s" s="12" r="B9">
+      <c r="H8" s="6"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" s="8" t="s">
         <v>26</v>
       </c>
-      <c t="s" s="12" r="C9">
+      <c r="C9" s="8" t="s">
         <v>27</v>
       </c>
-      <c t="s" s="12" r="D9">
+      <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
-      <c t="s" s="12" r="E9">
-        <v>16</v>
-      </c>
-      <c t="str" s="15" r="F9">
-        <f>CONCATENATE($B$1,"/",C9,"/test", if((D9 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="E9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>http://djabo.hoksi.wo.tc/spray/terms/test</v>
       </c>
-      <c t="str" s="15" r="G9">
-        <f>CONCATENATE($B$1,"/",C9,"/json", if((D9 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="G9" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>http://djabo.hoksi.wo.tc/spray/terms/json</v>
       </c>
-      <c s="8" r="H9"/>
-      <c s="18" r="I9"/>
-    </row>
-    <row r="10">
-      <c t="s" s="11" r="A10">
+      <c r="H9" s="6"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
         <v>28</v>
       </c>
-      <c t="s" s="12" r="B10">
+      <c r="B10" s="8" t="s">
         <v>29</v>
       </c>
-      <c t="s" s="12" r="C10">
+      <c r="C10" s="8" t="s">
         <v>30</v>
       </c>
-      <c t="s" s="12" r="D10">
-        <v>16</v>
-      </c>
-      <c t="s" s="12" r="E10">
-        <v>16</v>
-      </c>
-      <c t="str" s="15" r="F10">
-        <f>CONCATENATE($B$1,"/",C10,"/test", if((D10 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>http://djabo.hoksi.wo.tc/spray/bwrite/test/2697a9e20d11724e04375ecdb56ec18e</v>
       </c>
-      <c t="str" s="15" r="G10">
-        <f>CONCATENATE($B$1,"/",C10,"/json", if((D10 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="G10" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>http://djabo.hoksi.wo.tc/spray/bwrite/json/2697a9e20d11724e04375ecdb56ec18e</v>
       </c>
-      <c t="s" s="8" r="H10">
+      <c r="H10" s="6" t="s">
         <v>31</v>
       </c>
-      <c s="18" r="I10"/>
-    </row>
-    <row r="11">
-      <c s="11" r="A11"/>
-      <c t="s" s="6" r="B11">
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
-      <c t="s" s="6" r="C11">
+      <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
-      <c t="s" s="12" r="D11">
+      <c r="D11" s="8" t="s">
         <v>15</v>
       </c>
-      <c t="s" s="12" r="E11">
-        <v>16</v>
-      </c>
-      <c t="str" s="15" r="F11">
-        <f>CONCATENATE($B$1,"/",C11,"/test", if((D11 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="E11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>http://djabo.hoksi.wo.tc/spray/blist/test</v>
       </c>
-      <c t="str" s="15" r="G11">
-        <f>CONCATENATE($B$1,"/",C11,"/json", if((D11 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="G11" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>http://djabo.hoksi.wo.tc/spray/blist/json</v>
       </c>
-      <c t="s" s="8" r="H11">
+      <c r="H11" s="6" t="s">
         <v>34</v>
       </c>
-      <c s="18" r="I11"/>
-    </row>
-    <row r="12">
-      <c s="1" r="A12"/>
-      <c t="s" s="12" r="B12">
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="8" t="s">
         <v>35</v>
       </c>
-      <c t="s" s="12" r="C12">
+      <c r="C12" s="8" t="s">
         <v>36</v>
       </c>
-      <c t="s" s="12" r="D12">
+      <c r="D12" s="8" t="s">
         <v>15</v>
       </c>
-      <c t="s" s="12" r="E12">
-        <v>16</v>
-      </c>
-      <c t="str" s="15" r="F12">
-        <f>CONCATENATE($B$1,"/",C12,"/test", if((D12 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="E12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>http://djabo.hoksi.wo.tc/spray/bview/test</v>
       </c>
-      <c t="str" s="15" r="G12">
-        <f>CONCATENATE($B$1,"/",C12,"/json", if((D12 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="G12" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>http://djabo.hoksi.wo.tc/spray/bview/json</v>
       </c>
-      <c t="s" s="8" r="H12">
+      <c r="H12" s="6" t="s">
         <v>37</v>
       </c>
-      <c s="18" r="I12"/>
-    </row>
-    <row r="13">
-      <c s="1" r="A13"/>
-      <c t="s" s="12" r="B13">
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="8" t="s">
         <v>38</v>
       </c>
-      <c t="s" s="12" r="C13">
+      <c r="C13" s="8" t="s">
         <v>39</v>
       </c>
-      <c t="s" s="12" r="D13">
-        <v>16</v>
-      </c>
-      <c t="s" s="12" r="E13">
-        <v>16</v>
-      </c>
-      <c t="str" s="15" r="F13">
-        <f>CONCATENATE($B$1,"/",C13,"/test", if((D13 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="D13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>http://djabo.hoksi.wo.tc/spray/mydelete/test/2697a9e20d11724e04375ecdb56ec18e</v>
       </c>
-      <c t="str" s="15" r="G13">
-        <f>CONCATENATE($B$1,"/",C13,"/json", if((D13 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="G13" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>http://djabo.hoksi.wo.tc/spray/mydelete/json/2697a9e20d11724e04375ecdb56ec18e</v>
       </c>
-      <c t="s" s="8" r="H13">
+      <c r="H13" s="6" t="s">
         <v>37</v>
       </c>
-      <c s="18" r="I13"/>
-    </row>
-    <row r="14">
-      <c s="1" r="A14"/>
-      <c t="s" s="12" r="B14">
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="8" t="s">
         <v>40</v>
       </c>
-      <c t="s" s="12" r="C14">
+      <c r="C14" s="8" t="s">
         <v>41</v>
       </c>
-      <c t="s" s="12" r="D14">
-        <v>16</v>
-      </c>
-      <c t="s" s="12" r="E14">
-        <v>16</v>
-      </c>
-      <c t="str" s="15" r="F14">
-        <f>CONCATENATE($B$1,"/",C14,"/test", if((D14 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="D14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>http://djabo.hoksi.wo.tc/spray/blike/test/2697a9e20d11724e04375ecdb56ec18e</v>
       </c>
-      <c t="str" s="15" r="G14">
-        <f>CONCATENATE($B$1,"/",C14,"/json", if((D14 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="G14" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>http://djabo.hoksi.wo.tc/spray/blike/json/2697a9e20d11724e04375ecdb56ec18e</v>
       </c>
-      <c t="s" s="8" r="H14">
+      <c r="H14" s="6" t="s">
         <v>37</v>
       </c>
-      <c s="18" r="I14"/>
-    </row>
-    <row r="15">
-      <c s="1" r="A15"/>
-      <c t="s" s="12" r="B15">
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="8" t="s">
         <v>42</v>
       </c>
-      <c t="s" s="12" r="C15">
+      <c r="C15" s="8" t="s">
         <v>43</v>
       </c>
-      <c t="s" s="12" r="D15">
-        <v>16</v>
-      </c>
-      <c t="s" s="12" r="E15">
-        <v>16</v>
-      </c>
-      <c t="str" s="15" r="F15">
-        <f>CONCATENATE($B$1,"/",C15,"/test", if((D15 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="D15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>http://djabo.hoksi.wo.tc/spray/mylist/test/2697a9e20d11724e04375ecdb56ec18e</v>
       </c>
-      <c t="str" s="15" r="G15">
-        <f>CONCATENATE($B$1,"/",C15,"/json", if((D15 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="G15" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>http://djabo.hoksi.wo.tc/spray/mylist/json/2697a9e20d11724e04375ecdb56ec18e</v>
       </c>
-      <c t="s" s="8" r="H15">
+      <c r="H15" s="6" t="s">
         <v>44</v>
       </c>
-      <c s="18" r="I15"/>
-    </row>
-    <row r="16">
-      <c t="s" s="11" r="A16">
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>45</v>
       </c>
-      <c t="s" s="12" r="B16">
+      <c r="B16" s="8" t="s">
         <v>46</v>
       </c>
-      <c t="s" s="12" r="C16">
+      <c r="C16" s="8" t="s">
         <v>47</v>
       </c>
-      <c t="s" s="12" r="D16">
-        <v>16</v>
-      </c>
-      <c t="s" s="12" r="E16">
-        <v>16</v>
-      </c>
-      <c t="str" s="15" r="F16">
-        <f>CONCATENATE($B$1,"/",C16,"/test", if((D16 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="D16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>http://djabo.hoksi.wo.tc/spray/cwrite/test/2697a9e20d11724e04375ecdb56ec18e</v>
       </c>
-      <c t="str" s="15" r="G16">
-        <f>CONCATENATE($B$1,"/",C16,"/json", if((D16 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="G16" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>http://djabo.hoksi.wo.tc/spray/cwrite/json/2697a9e20d11724e04375ecdb56ec18e</v>
       </c>
-      <c t="s" s="8" r="H16">
+      <c r="H16" s="6" t="s">
         <v>48</v>
       </c>
-      <c s="18" r="I16"/>
-    </row>
-    <row r="17">
-      <c s="11" r="A17"/>
-      <c t="s" s="12" r="B17">
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="8" t="s">
         <v>49</v>
       </c>
-      <c t="s" s="12" r="C17">
+      <c r="C17" s="8" t="s">
         <v>50</v>
       </c>
-      <c t="s" s="12" r="D17">
+      <c r="D17" s="8" t="s">
         <v>15</v>
       </c>
-      <c t="s" s="12" r="E17">
-        <v>16</v>
-      </c>
-      <c t="str" s="15" r="F17">
-        <f>CONCATENATE($B$1,"/",C17,"/test", if((D17 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="E17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>http://djabo.hoksi.wo.tc/spray/clist/test</v>
       </c>
-      <c t="str" s="15" r="G17">
-        <f>CONCATENATE($B$1,"/",C17,"/json", if((D17 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="G17" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>http://djabo.hoksi.wo.tc/spray/clist/json</v>
       </c>
-      <c t="s" s="8" r="H17">
+      <c r="H17" s="6" t="s">
         <v>48</v>
       </c>
-      <c s="18" r="I17"/>
-    </row>
-    <row r="18">
-      <c s="11" r="A18"/>
-      <c t="s" s="12" r="B18">
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="8" t="s">
         <v>51</v>
       </c>
-      <c t="s" s="12" r="C18">
+      <c r="C18" s="8" t="s">
         <v>52</v>
       </c>
-      <c t="s" s="12" r="D18">
-        <v>16</v>
-      </c>
-      <c t="s" s="12" r="E18">
-        <v>16</v>
-      </c>
-      <c t="str" s="15" r="F18">
-        <f>CONCATENATE($B$1,"/",C18,"/test", if((D18 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="D18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>http://djabo.hoksi.wo.tc/spray/cdelete/test/2697a9e20d11724e04375ecdb56ec18e</v>
       </c>
-      <c t="str" s="15" r="G18">
-        <f>CONCATENATE($B$1,"/",C18,"/json", if((D18 = "X"), "", concatenate("/", $B$2)))</f>
+      <c r="G18" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>http://djabo.hoksi.wo.tc/spray/cdelete/json/2697a9e20d11724e04375ecdb56ec18e</v>
       </c>
-      <c t="s" s="8" r="H18">
+      <c r="H18" s="6" t="s">
         <v>53</v>
       </c>
-      <c s="18" r="I18"/>
-    </row>
-    <row r="19">
-      <c s="7" r="A19"/>
-      <c s="7" r="B19"/>
-      <c s="7" r="C19"/>
-      <c s="7" r="D19"/>
-      <c s="7" r="E19"/>
-      <c s="7" r="F19"/>
-      <c s="7" r="G19"/>
-      <c s="7" r="H19"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1079,5 +1259,8 @@
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A16:A18"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>